--- a/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
+++ b/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'웹디자인(자바스크립트-jQuery) 훈련과정'!$A$1:$J$18</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -181,9 +184,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="#\ &quot;시간&quot;"/>
-    <numFmt numFmtId="183" formatCode="&quot;총&quot;\ #\ &quot;시간&quot;"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="#\ &quot;시간&quot;"/>
+    <numFmt numFmtId="178" formatCode="&quot;총&quot;\ #\ &quot;시간&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -585,22 +588,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -609,10 +600,10 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,10 +621,10 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -645,25 +636,43 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,12 +691,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1002,8 +1005,8 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1022,376 +1025,374 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:10" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="27" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="28"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>44775</v>
       </c>
-      <c r="D5" s="15" t="str">
+      <c r="D5" s="11" t="str">
         <f>CHOOSE(WEEKDAY(C5,1),"일","월","화","수","목","금","토")</f>
         <v>화</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <v>3</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="34" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="17"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>44777</v>
       </c>
-      <c r="D6" s="15" t="str">
+      <c r="D6" s="11" t="str">
         <f>CHOOSE(WEEKDAY(C6,1),"일","월","화","수","목","금","토")</f>
         <v>목</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <v>3</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="17">
         <v>44782</v>
       </c>
-      <c r="D7" s="22" t="str">
+      <c r="D7" s="18" t="str">
         <f t="shared" ref="D7:D17" si="0">CHOOSE(WEEKDAY(C7,1),"일","월","화","수","목","금","토")</f>
         <v>화</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="19">
         <v>3</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="24"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="17">
         <v>44784</v>
       </c>
-      <c r="D8" s="22" t="str">
+      <c r="D8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="19">
         <v>3</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="30" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="24"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="17">
         <v>44785</v>
       </c>
-      <c r="D9" s="22" t="str">
+      <c r="D9" s="18" t="str">
         <f t="shared" si="0"/>
         <v>금</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <v>3</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="30" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="24"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="10">
         <v>44789</v>
       </c>
-      <c r="D10" s="15" t="str">
+      <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="12">
         <v>3</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="32" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="18"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="10">
         <v>44791</v>
       </c>
-      <c r="D11" s="15" t="str">
+      <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="12">
         <v>3</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32" t="s">
+      <c r="G11" s="26"/>
+      <c r="H11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="17">
         <v>44796</v>
       </c>
-      <c r="D12" s="22" t="str">
+      <c r="D12" s="18" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="19">
         <v>3</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="35"/>
+      <c r="H12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="24"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="17">
         <v>44798</v>
       </c>
-      <c r="D13" s="22" t="str">
+      <c r="D13" s="18" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="19">
         <v>3</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="35"/>
+      <c r="H13" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="25"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="17">
         <v>44799</v>
       </c>
-      <c r="D14" s="22" t="str">
+      <c r="D14" s="18" t="str">
         <f t="shared" si="0"/>
         <v>금</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="19">
         <v>3</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="38" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="25"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" ht="51" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="10">
         <v>44803</v>
       </c>
-      <c r="D15" s="15" t="str">
+      <c r="D15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="12">
         <v>3</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="34" t="s">
+      <c r="G15" s="26"/>
+      <c r="H15" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" ht="51" customHeight="1">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="10">
         <v>44805</v>
       </c>
-      <c r="D16" s="15" t="str">
+      <c r="D16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="12">
         <v>3</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="34" t="s">
+      <c r="G16" s="26"/>
+      <c r="H16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="18"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:10" ht="51" customHeight="1" thickBot="1">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="17">
         <v>44810</v>
       </c>
-      <c r="D17" s="22" t="str">
+      <c r="D17" s="18" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="19">
         <v>3</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="36" t="s">
+      <c r="G17" s="39"/>
+      <c r="H17" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="26"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="2:10" ht="44.25" customHeight="1" thickBot="1">
-      <c r="E18" s="12">
+      <c r="E18" s="8">
         <f>SUM(E5:E17)</f>
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H17:I17"/>
@@ -1420,10 +1421,13 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="55" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
+++ b/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TOMCO2-main\TOMCO5\000.커리큐럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -617,7 +617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,24 +684,120 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -714,101 +810,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1123,7 +1129,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1142,27 +1148,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:10" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="4" t="s">
@@ -1177,78 +1183,78 @@
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="38" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="40"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="23">
         <v>44775</v>
       </c>
-      <c r="D5" s="43" t="str">
+      <c r="D5" s="24" t="str">
         <f>CHOOSE(WEEKDAY(C5,1),"일","월","화","수","목","금","토")</f>
         <v>화</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="25">
         <v>3</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="23">
         <v>44777</v>
       </c>
-      <c r="D6" s="43" t="str">
+      <c r="D6" s="24" t="str">
         <f>CHOOSE(WEEKDAY(C6,1),"일","월","화","수","목","금","토")</f>
         <v>목</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="25">
         <v>3</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="46"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="50" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
+      <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="23">
         <v>44782</v>
       </c>
-      <c r="D7" s="43" t="str">
+      <c r="D7" s="24" t="str">
         <f t="shared" ref="D7:D17" si="0">CHOOSE(WEEKDAY(C7,1),"일","월","화","수","목","금","토")</f>
         <v>화</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="25">
         <v>3</v>
       </c>
       <c r="F7" s="50" t="s">
@@ -1259,20 +1265,20 @@
         <v>39</v>
       </c>
       <c r="I7" s="51"/>
-      <c r="J7" s="52"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="23">
         <v>44784</v>
       </c>
-      <c r="D8" s="43" t="str">
+      <c r="D8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="25">
         <v>3</v>
       </c>
       <c r="F8" s="50" t="s">
@@ -1283,56 +1289,56 @@
         <v>33</v>
       </c>
       <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
+      <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:10" ht="57.75" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="23">
         <v>44785</v>
       </c>
-      <c r="D9" s="55" t="str">
+      <c r="D9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>금</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="25">
         <v>3</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="57" t="s">
+      <c r="G9" s="51"/>
+      <c r="H9" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="29">
         <v>44789</v>
       </c>
-      <c r="D10" s="11" t="str">
+      <c r="D10" s="30" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="31">
         <v>3</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="32" t="s">
+      <c r="G10" s="65"/>
+      <c r="H10" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="13"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" ht="57.75" customHeight="1">
       <c r="B11" s="9" t="s">
@@ -1348,14 +1354,14 @@
       <c r="E11" s="12">
         <v>3</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="32" t="s">
+      <c r="G11" s="40"/>
+      <c r="H11" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="33"/>
+      <c r="I11" s="38"/>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" ht="57.75" customHeight="1">
@@ -1372,14 +1378,14 @@
       <c r="E12" s="18">
         <v>3</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="63"/>
+      <c r="H12" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
@@ -1396,14 +1402,14 @@
       <c r="E13" s="18">
         <v>3</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="63"/>
+      <c r="H13" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
@@ -1420,14 +1426,14 @@
       <c r="E14" s="18">
         <v>3</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="28" t="s">
+      <c r="G14" s="63"/>
+      <c r="H14" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="61"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="51" customHeight="1">
@@ -1444,14 +1450,14 @@
       <c r="E15" s="12">
         <v>3</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="22" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="23"/>
+      <c r="I15" s="59"/>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="51" customHeight="1">
@@ -1468,38 +1474,38 @@
       <c r="E16" s="12">
         <v>3</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="22" t="s">
+      <c r="G16" s="40"/>
+      <c r="H16" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="23"/>
+      <c r="I16" s="59"/>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10" ht="51" customHeight="1" thickBot="1">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="34">
         <v>44810</v>
       </c>
-      <c r="D17" s="62" t="str">
+      <c r="D17" s="35" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="36">
         <v>3</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="26" t="s">
+      <c r="G17" s="57"/>
+      <c r="H17" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="27"/>
+      <c r="I17" s="57"/>
       <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" ht="44.25" customHeight="1" thickBot="1">
@@ -1510,6 +1516,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B3:I3"/>
@@ -1526,20 +1546,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
+++ b/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TOMCO2-main\TOMCO5\000.커리큐럼\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\TOMCO5\000.커리큐럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DOM 정리 및 실전연습</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>변수와 연산자 1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -180,11 +176,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>for문연습,옵션 / 배열과 객체, 배열 메서드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>객체연습 / for of문,for in문 / 함수 / 문자,숫자가공</t>
+    <t>for문연습,옵션 / 배열과 객체</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 메서드 / 객체연습 / for of문,for in문 / 함수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자,숫자가공 / DOM 정리 및 실전연습</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,18 +729,48 @@
     <xf numFmtId="177" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,12 +790,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -784,36 +808,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1129,7 +1123,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1148,27 +1142,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:10" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="44"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="4" t="s">
@@ -1183,14 +1177,14 @@
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="45" t="s">
+      <c r="G4" s="56"/>
+      <c r="H4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="57"/>
       <c r="J4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1209,14 +1203,14 @@
       <c r="E5" s="25">
         <v>3</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54" t="s">
+      <c r="G5" s="61"/>
+      <c r="H5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="55"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
@@ -1233,14 +1227,14 @@
       <c r="E6" s="25">
         <v>3</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="51"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="59"/>
       <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:10" ht="57.75" customHeight="1">
@@ -1257,14 +1251,14 @@
       <c r="E7" s="25">
         <v>3</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="51"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="59"/>
       <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:10" ht="57.75" customHeight="1">
@@ -1281,14 +1275,14 @@
       <c r="E8" s="25">
         <v>3</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="50" t="s">
+      <c r="G8" s="59"/>
+      <c r="H8" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="51"/>
+      <c r="I8" s="59"/>
       <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:10" ht="57.75" customHeight="1">
@@ -1305,64 +1299,64 @@
       <c r="E9" s="25">
         <v>3</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="51"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="59"/>
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10" ht="57.75" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="23">
         <v>44789</v>
       </c>
-      <c r="D10" s="30" t="str">
+      <c r="D10" s="24" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="25">
         <v>3</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="32"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="59"/>
+      <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="29">
         <v>44791</v>
       </c>
-      <c r="D11" s="11" t="str">
+      <c r="D11" s="30" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="31">
         <v>3</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="13"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="48"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10" ht="57.75" customHeight="1">
       <c r="B12" s="15" t="s">
@@ -1378,14 +1372,14 @@
       <c r="E12" s="18">
         <v>3</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="63"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="42"/>
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
@@ -1402,14 +1396,14 @@
       <c r="E13" s="18">
         <v>3</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="62" t="s">
+      <c r="G13" s="42"/>
+      <c r="H13" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="63"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
@@ -1426,14 +1420,14 @@
       <c r="E14" s="18">
         <v>3</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="60" t="s">
+      <c r="G14" s="42"/>
+      <c r="H14" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="61"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" ht="51" customHeight="1">
@@ -1450,14 +1444,14 @@
       <c r="E15" s="12">
         <v>3</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="58" t="s">
+      <c r="G15" s="38"/>
+      <c r="H15" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="59"/>
+      <c r="I15" s="46"/>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="51" customHeight="1">
@@ -1474,14 +1468,14 @@
       <c r="E16" s="12">
         <v>3</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="58" t="s">
+      <c r="G16" s="38"/>
+      <c r="H16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="59"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10" ht="51" customHeight="1" thickBot="1">
@@ -1498,14 +1492,14 @@
       <c r="E17" s="36">
         <v>3</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="56" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="57"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" ht="44.25" customHeight="1" thickBot="1">
@@ -1516,20 +1510,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B3:I3"/>
@@ -1546,6 +1526,20 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
+++ b/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
@@ -180,11 +180,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>배열 메서드 / 객체연습 / for of문,for in문 / 함수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자,숫자가공 / DOM 정리 및 실전연습</t>
+    <t>배열 메서드 / 객체연습 / for of문,for in문</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 함수 / 문자,숫자가공 / DOM 정리 및 실전연습</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,9 +676,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,12 +726,69 @@
     <xf numFmtId="177" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -746,69 +800,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1122,8 +1113,8 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1142,27 +1133,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:10" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="4" t="s">
@@ -1177,210 +1168,210 @@
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="55" t="s">
+      <c r="G4" s="45"/>
+      <c r="H4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="57"/>
+      <c r="I4" s="46"/>
       <c r="J4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>44775</v>
       </c>
-      <c r="D5" s="24" t="str">
+      <c r="D5" s="23" t="str">
         <f>CHOOSE(WEEKDAY(C5,1),"일","월","화","수","목","금","토")</f>
         <v>화</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>3</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>44777</v>
       </c>
-      <c r="D6" s="24" t="str">
+      <c r="D6" s="23" t="str">
         <f>CHOOSE(WEEKDAY(C6,1),"일","월","화","수","목","금","토")</f>
         <v>목</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>3</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="58" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="27"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>44782</v>
       </c>
-      <c r="D7" s="24" t="str">
+      <c r="D7" s="23" t="str">
         <f t="shared" ref="D7:D17" si="0">CHOOSE(WEEKDAY(C7,1),"일","월","화","수","목","금","토")</f>
         <v>화</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>3</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="58" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="27"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>44784</v>
       </c>
-      <c r="D8" s="24" t="str">
+      <c r="D8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>3</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="58" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="27"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>44785</v>
       </c>
-      <c r="D9" s="24" t="str">
+      <c r="D9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>금</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <v>3</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="58" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="27"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>44789</v>
       </c>
-      <c r="D10" s="24" t="str">
+      <c r="D10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>3</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="58" t="s">
+      <c r="G10" s="39"/>
+      <c r="H10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="27"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="57.75" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="22">
         <v>44791</v>
       </c>
-      <c r="D11" s="30" t="str">
+      <c r="D11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="24">
         <v>3</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="50"/>
-      <c r="H11" s="47" t="s">
+      <c r="G11" s="39"/>
+      <c r="H11" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="32"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="28">
         <v>44796</v>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="29" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="30">
         <v>3</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="41" t="s">
+      <c r="G12" s="56"/>
+      <c r="H12" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="42"/>
-      <c r="J12" s="19"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
       <c r="B13" s="15" t="s">
@@ -1396,15 +1387,15 @@
       <c r="E13" s="18">
         <v>3</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="41" t="s">
+      <c r="G13" s="60"/>
+      <c r="H13" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="20"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
       <c r="B14" s="15" t="s">
@@ -1420,15 +1411,15 @@
       <c r="E14" s="18">
         <v>3</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="39" t="s">
+      <c r="G14" s="60"/>
+      <c r="H14" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="20"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" ht="51" customHeight="1">
       <c r="B15" s="9" t="s">
@@ -1444,14 +1435,14 @@
       <c r="E15" s="12">
         <v>3</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="38"/>
-      <c r="H15" s="45" t="s">
+      <c r="G15" s="54"/>
+      <c r="H15" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="46"/>
+      <c r="I15" s="52"/>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="51" customHeight="1">
@@ -1468,39 +1459,39 @@
       <c r="E16" s="12">
         <v>3</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="38"/>
-      <c r="H16" s="45" t="s">
+      <c r="G16" s="54"/>
+      <c r="H16" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="46"/>
+      <c r="I16" s="52"/>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10" ht="51" customHeight="1" thickBot="1">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="33">
         <v>44810</v>
       </c>
-      <c r="D17" s="35" t="str">
+      <c r="D17" s="34" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="35">
         <v>3</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="43" t="s">
+      <c r="G17" s="50"/>
+      <c r="H17" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="21"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:10" ht="44.25" customHeight="1" thickBot="1">
       <c r="E18" s="8">
@@ -1510,6 +1501,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B3:I3"/>
@@ -1526,20 +1531,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
+++ b/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\TOMCO5\000.커리큐럼\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TOMCO2-main\TOMCO5\000.커리큐럼\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>미니언즈로 선택자, 메서드 연습</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>제이쿼리기초</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -180,11 +176,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>배열 메서드 / 객체연습 / for of문,for in문</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 함수 / 문자,숫자가공 / DOM 정리 및 실전연습</t>
+    <t>문자,숫자가공 / DOM 정리 및 실전연습
+미니언즈로 선택자, 메서드 연습</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 객체연습 / 함수 / Date객체와 Math객체</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열 메서드 / for of문,for in문</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,9 +712,6 @@
     <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,6 +736,42 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,41 +799,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1114,7 +1118,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1133,27 +1137,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:10" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="4" t="s">
@@ -1168,14 +1172,14 @@
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="44" t="s">
+      <c r="G4" s="56"/>
+      <c r="H4" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="46"/>
+      <c r="I4" s="57"/>
       <c r="J4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1194,14 +1198,14 @@
       <c r="E5" s="24">
         <v>3</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="38"/>
+      <c r="H5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
@@ -1218,14 +1222,14 @@
       <c r="E6" s="24">
         <v>3</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="36"/>
       <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="57.75" customHeight="1">
@@ -1242,14 +1246,14 @@
       <c r="E7" s="24">
         <v>3</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="37"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="36"/>
       <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="57.75" customHeight="1">
@@ -1266,14 +1270,14 @@
       <c r="E8" s="24">
         <v>3</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="36" t="s">
+      <c r="G8" s="36"/>
+      <c r="H8" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="37"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="57.75" customHeight="1">
@@ -1290,14 +1294,14 @@
       <c r="E9" s="24">
         <v>3</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="37"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="36"/>
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" ht="57.75" customHeight="1">
@@ -1314,14 +1318,14 @@
       <c r="E10" s="24">
         <v>3</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="36"/>
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="57.75" customHeight="1">
@@ -1338,64 +1342,64 @@
       <c r="E11" s="24">
         <v>3</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="36"/>
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="57.75" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="22">
         <v>44796</v>
       </c>
-      <c r="D12" s="29" t="str">
+      <c r="D12" s="23" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="24">
         <v>3</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="31"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="36"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="28">
         <v>44798</v>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="29" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="30">
         <v>3</v>
       </c>
-      <c r="F13" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="59" t="s">
+      <c r="F13" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="60"/>
-      <c r="J13" s="19"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="44"/>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
       <c r="B14" s="15" t="s">
@@ -1411,14 +1415,14 @@
       <c r="E14" s="18">
         <v>3</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="57" t="s">
+      <c r="G14" s="42"/>
+      <c r="H14" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="58"/>
+      <c r="I14" s="40"/>
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" ht="51" customHeight="1">
@@ -1435,14 +1439,14 @@
       <c r="E15" s="12">
         <v>3</v>
       </c>
-      <c r="F15" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="51" t="s">
+      <c r="F15" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="50"/>
+      <c r="H15" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="52"/>
+      <c r="I15" s="48"/>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="51" customHeight="1">
@@ -1459,38 +1463,38 @@
       <c r="E16" s="12">
         <v>3</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="51" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="52"/>
+      <c r="I16" s="48"/>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10" ht="51" customHeight="1" thickBot="1">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="32">
         <v>44810</v>
       </c>
-      <c r="D17" s="34" t="str">
+      <c r="D17" s="33" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="34">
         <v>3</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="50"/>
-      <c r="H17" s="49" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="50"/>
+      <c r="I17" s="46"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:10" ht="44.25" customHeight="1" thickBot="1">
@@ -1501,20 +1505,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B3:I3"/>
@@ -1531,6 +1521,20 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
+++ b/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
@@ -618,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,24 +661,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -724,6 +706,9 @@
     <xf numFmtId="177" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -736,23 +721,32 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,37 +766,19 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1118,7 +1094,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H17" sqref="H17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1137,27 +1113,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:10" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="4" t="s">
@@ -1172,234 +1148,233 @@
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="55" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="57"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="16">
         <v>44775</v>
       </c>
-      <c r="D5" s="23" t="str">
+      <c r="D5" s="17" t="str">
         <f>CHOOSE(WEEKDAY(C5,1),"일","월","화","수","목","금","토")</f>
         <v>화</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="18">
         <v>3</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="58" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="25"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="16">
         <v>44777</v>
       </c>
-      <c r="D6" s="23" t="str">
+      <c r="D6" s="17" t="str">
         <f>CHOOSE(WEEKDAY(C6,1),"일","월","화","수","목","금","토")</f>
         <v>목</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="18">
         <v>3</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="35" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="16">
         <v>44782</v>
       </c>
-      <c r="D7" s="23" t="str">
+      <c r="D7" s="17" t="str">
         <f t="shared" ref="D7:D17" si="0">CHOOSE(WEEKDAY(C7,1),"일","월","화","수","목","금","토")</f>
         <v>화</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="18">
         <v>3</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="35" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="16">
         <v>44784</v>
       </c>
-      <c r="D8" s="23" t="str">
+      <c r="D8" s="17" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="18">
         <v>3</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="35" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="16">
         <v>44785</v>
       </c>
-      <c r="D9" s="23" t="str">
+      <c r="D9" s="17" t="str">
         <f t="shared" si="0"/>
         <v>금</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="18">
         <v>3</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="35" t="s">
+      <c r="G9" s="31"/>
+      <c r="H9" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="16">
         <v>44789</v>
       </c>
-      <c r="D10" s="23" t="str">
+      <c r="D10" s="17" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="18">
         <v>3</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="35" t="s">
+      <c r="G10" s="33"/>
+      <c r="H10" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="16">
         <v>44791</v>
       </c>
-      <c r="D11" s="23" t="str">
+      <c r="D11" s="17" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="18">
         <v>3</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="38"/>
-      <c r="H11" s="35" t="s">
+      <c r="G11" s="33"/>
+      <c r="H11" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="16">
         <v>44796</v>
       </c>
-      <c r="D12" s="23" t="str">
+      <c r="D12" s="17" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="18">
         <v>3</v>
       </c>
-      <c r="F12" s="35" t="s">
+      <c r="F12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="35" t="s">
+      <c r="G12" s="31"/>
+      <c r="H12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="26"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="16">
         <v>44798</v>
       </c>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="17" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="18">
         <v>3</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="60" t="s">
+      <c r="G13" s="31"/>
+      <c r="H13" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="61"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
       <c r="B14" s="15" t="s">
@@ -1415,39 +1390,40 @@
       <c r="E14" s="18">
         <v>3</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="39" t="s">
+      <c r="G14" s="31"/>
+      <c r="H14" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="19"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="51" customHeight="1">
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="22">
         <v>44803</v>
       </c>
-      <c r="D15" s="11" t="str">
+      <c r="D15" s="23" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="24">
         <v>3</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="50"/>
-      <c r="H15" s="47" t="s">
+      <c r="G15" s="51"/>
+      <c r="H15" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="14"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" ht="51" customHeight="1">
       <c r="B16" s="9" t="s">
@@ -1463,39 +1439,39 @@
       <c r="E16" s="12">
         <v>3</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="50"/>
-      <c r="H16" s="47" t="s">
+      <c r="G16" s="48"/>
+      <c r="H16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="48"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="2:10" ht="51" customHeight="1" thickBot="1">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="26">
         <v>44810</v>
       </c>
-      <c r="D17" s="33" t="str">
+      <c r="D17" s="27" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="28">
         <v>3</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="45" t="s">
+      <c r="G17" s="44"/>
+      <c r="H17" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="20"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="2:10" ht="44.25" customHeight="1" thickBot="1">
       <c r="E18" s="8">
@@ -1505,6 +1481,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B3:I3"/>
@@ -1521,20 +1511,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
+++ b/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
@@ -264,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,12 +291,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -618,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,24 +640,27 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,44 +673,50 @@
     <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -742,44 +745,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1094,7 +1061,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:I17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1113,27 +1080,27 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:10" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="4" t="s">
@@ -1148,330 +1115,330 @@
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="38" t="s">
+      <c r="G4" s="42"/>
+      <c r="H4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="40"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="11">
         <v>44775</v>
       </c>
-      <c r="D5" s="17" t="str">
+      <c r="D5" s="12" t="str">
         <f>CHOOSE(WEEKDAY(C5,1),"일","월","화","수","목","금","토")</f>
         <v>화</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="13">
         <v>3</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="41" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="19"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="11">
         <v>44777</v>
       </c>
-      <c r="D6" s="17" t="str">
+      <c r="D6" s="12" t="str">
         <f>CHOOSE(WEEKDAY(C6,1),"일","월","화","수","목","금","토")</f>
         <v>목</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="13">
         <v>3</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="30" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="20"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="11">
         <v>44782</v>
       </c>
-      <c r="D7" s="17" t="str">
+      <c r="D7" s="12" t="str">
         <f t="shared" ref="D7:D17" si="0">CHOOSE(WEEKDAY(C7,1),"일","월","화","수","목","금","토")</f>
         <v>화</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="13">
         <v>3</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="20"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="11">
         <v>44784</v>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="13">
         <v>3</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="30" t="s">
+      <c r="G8" s="26"/>
+      <c r="H8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="20"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="11">
         <v>44785</v>
       </c>
-      <c r="D9" s="17" t="str">
+      <c r="D9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>금</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="13">
         <v>3</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="30" t="s">
+      <c r="G9" s="26"/>
+      <c r="H9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="20"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="11">
         <v>44789</v>
       </c>
-      <c r="D10" s="17" t="str">
+      <c r="D10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="13">
         <v>3</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="30" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="20"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="11">
         <v>44791</v>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="13">
         <v>3</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="30" t="s">
+      <c r="G11" s="28"/>
+      <c r="H11" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="20"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="11">
         <v>44796</v>
       </c>
-      <c r="D12" s="17" t="str">
+      <c r="D12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="13">
         <v>3</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="26"/>
+      <c r="H12" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="20"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="11">
         <v>44798</v>
       </c>
-      <c r="D13" s="17" t="str">
+      <c r="D13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="13">
         <v>3</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="41" t="s">
+      <c r="G13" s="26"/>
+      <c r="H13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="53"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="11">
         <v>44799</v>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>금</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="13">
         <v>3</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="41" t="s">
+      <c r="G14" s="26"/>
+      <c r="H14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="53"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:10" ht="51" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="11">
         <v>44803</v>
       </c>
-      <c r="D15" s="23" t="str">
+      <c r="D15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="13">
         <v>3</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="51"/>
-      <c r="H15" s="49" t="s">
+      <c r="G15" s="28"/>
+      <c r="H15" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="52"/>
-      <c r="J15" s="29"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:10" ht="51" customHeight="1">
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="17">
         <v>44805</v>
       </c>
-      <c r="D16" s="11" t="str">
+      <c r="D16" s="18" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="19">
         <v>3</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="45" t="s">
+      <c r="G16" s="36"/>
+      <c r="H16" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="2:10" ht="51" customHeight="1" thickBot="1">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="21">
         <v>44810</v>
       </c>
-      <c r="D17" s="27" t="str">
+      <c r="D17" s="22" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="23">
         <v>3</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="43" t="s">
+      <c r="G17" s="32"/>
+      <c r="H17" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="14"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:10" ht="44.25" customHeight="1" thickBot="1">
       <c r="E18" s="8">
@@ -1481,20 +1448,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B3:I3"/>
@@ -1511,6 +1464,20 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
+++ b/000.커리큐럼/GITA22-JSjQ08-일단위상세일정.xlsx
@@ -264,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,12 +291,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -612,7 +606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -640,113 +634,86 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1061,7 +1028,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1078,31 +1045,31 @@
     <col min="10" max="10" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:10" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="38" t="s">
+    <row r="1" spans="2:10" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:10" ht="53.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="34.5" customHeight="1">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="23"/>
+    </row>
+    <row r="3" spans="2:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="2:10" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1115,332 +1082,332 @@
       <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="41" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="43"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" ht="48" customHeight="1">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:10" s="2" customFormat="1" ht="48" customHeight="1">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>44775</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="D5" s="11" t="str">
         <f>CHOOSE(WEEKDAY(C5,1),"일","월","화","수","목","금","토")</f>
         <v>화</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>3</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="55.5" customHeight="1">
-      <c r="B6" s="10" t="s">
+      <c r="I5" s="28"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="2:10" ht="55.5" customHeight="1">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>44777</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="11" t="str">
         <f>CHOOSE(WEEKDAY(C6,1),"일","월","화","수","목","금","토")</f>
         <v>목</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>3</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="25" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B7" s="10" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="2:10" ht="57.75" customHeight="1">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>44782</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D7" s="11" t="str">
         <f t="shared" ref="D7:D17" si="0">CHOOSE(WEEKDAY(C7,1),"일","월","화","수","목","금","토")</f>
         <v>화</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>3</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="25" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B8" s="10" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="2:10" ht="57.75" customHeight="1">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>44784</v>
       </c>
-      <c r="D8" s="12" t="str">
+      <c r="D8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>3</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="25" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B9" s="10" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="2:10" ht="57.75" customHeight="1">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>44785</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>금</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>3</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="25" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B10" s="10" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="2:10" ht="57.75" customHeight="1">
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>44789</v>
       </c>
-      <c r="D10" s="12" t="str">
+      <c r="D10" s="11" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>3</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="25" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B11" s="10" t="s">
+      <c r="I10" s="17"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="2:10" ht="57.75" customHeight="1">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>44791</v>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D11" s="11" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>3</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="25" t="s">
+      <c r="G11" s="19"/>
+      <c r="H11" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B12" s="10" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:10" ht="57.75" customHeight="1">
+      <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>44796</v>
       </c>
-      <c r="D12" s="12" t="str">
+      <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>3</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="25" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="B13" s="10" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="2:10" ht="51" customHeight="1">
+      <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>44798</v>
       </c>
-      <c r="D13" s="12" t="str">
+      <c r="D13" s="11" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>3</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="29" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="B14" s="10" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="2:10" ht="51" customHeight="1">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>44799</v>
       </c>
-      <c r="D14" s="12" t="str">
+      <c r="D14" s="11" t="str">
         <f t="shared" si="0"/>
         <v>금</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>3</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="29" t="s">
+      <c r="G14" s="17"/>
+      <c r="H14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:10" ht="51" customHeight="1">
-      <c r="B15" s="10" t="s">
+      <c r="I14" s="28"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="2:10" ht="51" customHeight="1">
+      <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>44803</v>
       </c>
-      <c r="D15" s="12" t="str">
+      <c r="D15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>3</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29" t="s">
+      <c r="G15" s="19"/>
+      <c r="H15" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="24"/>
-    </row>
-    <row r="16" spans="1:10" ht="51" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="16" t="s">
+      <c r="I15" s="28"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="2:10" ht="51" customHeight="1">
+      <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="10">
         <v>44805</v>
       </c>
-      <c r="D16" s="18" t="str">
+      <c r="D16" s="11" t="str">
         <f t="shared" si="0"/>
         <v>목</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="12">
         <v>3</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="33" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="44"/>
-    </row>
-    <row r="17" spans="2:10" ht="51" customHeight="1" thickBot="1">
-      <c r="B17" s="20" t="s">
+      <c r="I16" s="28"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" ht="51" customHeight="1" thickBot="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="30">
         <v>44810</v>
       </c>
-      <c r="D17" s="22" t="str">
+      <c r="D17" s="31" t="str">
         <f t="shared" si="0"/>
         <v>화</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="32">
         <v>3</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="F17" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="31" t="s">
+      <c r="G17" s="34"/>
+      <c r="H17" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="2:10" ht="44.25" customHeight="1" thickBot="1">
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:10" ht="44.25" customHeight="1" thickBot="1">
       <c r="E18" s="8">
         <f>SUM(E5:E17)</f>
         <v>39</v>
@@ -1448,6 +1415,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B3:I3"/>
@@ -1464,20 +1445,6 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
